--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-06-11 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-11 23:45:00+00:00</t>
+    <t>2024-06-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-19 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1139,19 +1139,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>689.099866231283</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.0006890998662312</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0003445499331156</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>8.613748327891039E-05</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,19 +1159,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>8266.782842000326</v>
+        <v>7859.702987670898</v>
       </c>
       <c r="C25">
-        <v>0.0082667828420003</v>
+        <v>0.007859702987670801</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.0006890998662312</v>
       </c>
       <c r="E25">
-        <v>0.0041333914210001</v>
+        <v>0.004274401426951</v>
       </c>
       <c r="F25">
-        <v>0.00103334785525</v>
+        <v>0.0010686003567377</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,19 +1179,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>28058.88033040365</v>
+        <v>21855.46544392904</v>
       </c>
       <c r="C26">
-        <v>0.0280588803304036</v>
+        <v>0.021855465443929</v>
       </c>
       <c r="D26">
-        <v>0.0082667828420003</v>
+        <v>0.007859702987670801</v>
       </c>
       <c r="E26">
-        <v>0.0181628315862019</v>
+        <v>0.0148575842157999</v>
       </c>
       <c r="F26">
-        <v>0.0045407078965504</v>
+        <v>0.0037143960539499</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>140853.0918782552</v>
+        <v>47716.76338704427</v>
       </c>
       <c r="C27">
-        <v>0.1408530918782552</v>
+        <v>0.0477167633870442</v>
       </c>
       <c r="D27">
-        <v>0.0280588803304036</v>
+        <v>0.021855465443929</v>
       </c>
       <c r="E27">
-        <v>0.0844559861043294</v>
+        <v>0.0347861144154866</v>
       </c>
       <c r="F27">
-        <v>0.0211139965260823</v>
+        <v>0.008696528603871601</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>184266.8113199869</v>
+        <v>66857.48278808594</v>
       </c>
       <c r="C28">
-        <v>0.1842668113199868</v>
+        <v>0.0668574827880859</v>
       </c>
       <c r="D28">
-        <v>0.1408530918782552</v>
+        <v>0.0477167633870442</v>
       </c>
       <c r="E28">
-        <v>0.1625599515991209</v>
+        <v>0.057287123087565</v>
       </c>
       <c r="F28">
-        <v>0.0406399878997801</v>
+        <v>0.0143217807718912</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>138370.9294433594</v>
+        <v>86289.01322428384</v>
       </c>
       <c r="C29">
-        <v>0.1383709294433593</v>
+        <v>0.0862890132242838</v>
       </c>
       <c r="D29">
-        <v>0.1842668113199868</v>
+        <v>0.0668574827880859</v>
       </c>
       <c r="E29">
-        <v>0.1613188703816731</v>
+        <v>0.0765732480061848</v>
       </c>
       <c r="F29">
-        <v>0.0403297175954182</v>
+        <v>0.0191433120015461</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>107317.0310465495</v>
+        <v>130161.9264322917</v>
       </c>
       <c r="C30">
-        <v>0.1073170310465494</v>
+        <v>0.1301619264322915</v>
       </c>
       <c r="D30">
-        <v>0.1383709294433593</v>
+        <v>0.0862890132242838</v>
       </c>
       <c r="E30">
-        <v>0.1228439802449544</v>
+        <v>0.1082254698282877</v>
       </c>
       <c r="F30">
-        <v>0.0307109950612385</v>
+        <v>0.0270563674570719</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>90356.49943033853</v>
+        <v>229625.5572102864</v>
       </c>
       <c r="C31">
-        <v>0.09035649943033841</v>
+        <v>0.2296255572102864</v>
       </c>
       <c r="D31">
-        <v>0.1073170310465494</v>
+        <v>0.1301619264322915</v>
       </c>
       <c r="E31">
-        <v>0.09883676523844399</v>
+        <v>0.179893741821289</v>
       </c>
       <c r="F31">
-        <v>0.024709191309611</v>
+        <v>0.0449734354553222</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>93991.31799316406</v>
+        <v>386699.9888509115</v>
       </c>
       <c r="C32">
-        <v>0.093991317993164</v>
+        <v>0.3866999888509115</v>
       </c>
       <c r="D32">
-        <v>0.09035649943033841</v>
+        <v>0.2296255572102864</v>
       </c>
       <c r="E32">
-        <v>0.0921739087117512</v>
+        <v>0.3081627730305988</v>
       </c>
       <c r="F32">
-        <v>0.0230434771779377</v>
+        <v>0.0770406932576496</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>134185.8386230469</v>
+        <v>594515.7807617188</v>
       </c>
       <c r="C33">
-        <v>0.1341858386230468</v>
+        <v>0.5945157807617187</v>
       </c>
       <c r="D33">
-        <v>0.093991317993164</v>
+        <v>0.3866999888509115</v>
       </c>
       <c r="E33">
-        <v>0.1140885783081054</v>
+        <v>0.4906078848063151</v>
       </c>
       <c r="F33">
-        <v>0.0285221445770263</v>
+        <v>0.1226519712015787</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>114516.7580973307</v>
+        <v>803619.599609375</v>
       </c>
       <c r="C34">
-        <v>0.1145167580973306</v>
+        <v>0.8036195996093749</v>
       </c>
       <c r="D34">
-        <v>0.1341858386230468</v>
+        <v>0.5945157807617187</v>
       </c>
       <c r="E34">
-        <v>0.1243512983601887</v>
+        <v>0.6990676901855467</v>
       </c>
       <c r="F34">
-        <v>0.0310878245900471</v>
+        <v>0.1747669225463866</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>213078.5038248698</v>
+        <v>1028912.063802083</v>
       </c>
       <c r="C35">
-        <v>0.2130785038248697</v>
+        <v>1.028912063802083</v>
       </c>
       <c r="D35">
-        <v>0.1145167580973306</v>
+        <v>0.8036195996093749</v>
       </c>
       <c r="E35">
-        <v>0.1637976309611002</v>
+        <v>0.9162658317057291</v>
       </c>
       <c r="F35">
-        <v>0.040949407740275</v>
+        <v>0.2290664579264322</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>491233.8266601563</v>
+        <v>1262598.486653646</v>
       </c>
       <c r="C36">
-        <v>0.4912338266601562</v>
+        <v>1.262598486653646</v>
       </c>
       <c r="D36">
-        <v>0.2130785038248697</v>
+        <v>1.028912063802083</v>
       </c>
       <c r="E36">
-        <v>0.352156165242513</v>
+        <v>1.145755275227865</v>
       </c>
       <c r="F36">
-        <v>0.0880390413106282</v>
+        <v>0.2864388188069661</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>477276.7493489584</v>
+        <v>1464948.033203125</v>
       </c>
       <c r="C37">
-        <v>0.4772767493489583</v>
+        <v>1.464948033203125</v>
       </c>
       <c r="D37">
-        <v>0.4912338266601562</v>
+        <v>1.262598486653646</v>
       </c>
       <c r="E37">
-        <v>0.4842552880045573</v>
+        <v>1.363773259928386</v>
       </c>
       <c r="F37">
-        <v>0.1210638220011392</v>
+        <v>0.3409433149820963</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>675784.2501627605</v>
+        <v>1688063.014322917</v>
       </c>
       <c r="C38">
-        <v>0.6757842501627604</v>
+        <v>1.688063014322917</v>
       </c>
       <c r="D38">
-        <v>0.4772767493489583</v>
+        <v>1.464948033203125</v>
       </c>
       <c r="E38">
-        <v>0.5765304997558593</v>
+        <v>1.576505523763021</v>
       </c>
       <c r="F38">
-        <v>0.1441326249389648</v>
+        <v>0.3941263809407551</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1209098.137369792</v>
+        <v>1903729.349609375</v>
       </c>
       <c r="C39">
-        <v>1.209098137369792</v>
+        <v>1.903729349609375</v>
       </c>
       <c r="D39">
-        <v>0.6757842501627604</v>
+        <v>1.688063014322917</v>
       </c>
       <c r="E39">
-        <v>0.942441193766276</v>
+        <v>1.795896181966146</v>
       </c>
       <c r="F39">
-        <v>0.2356102984415689</v>
+        <v>0.4489740454915365</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>2066126.134765625</v>
+        <v>2111411.909505208</v>
       </c>
       <c r="C40">
-        <v>2.066126134765625</v>
+        <v>2.111411909505208</v>
       </c>
       <c r="D40">
-        <v>1.209098137369792</v>
+        <v>1.903729349609375</v>
       </c>
       <c r="E40">
-        <v>1.637612136067709</v>
+        <v>2.007570629557291</v>
       </c>
       <c r="F40">
-        <v>0.409403034016927</v>
+        <v>0.5018926573893228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>869821.6936848959</v>
+        <v>2301467.50390625</v>
       </c>
       <c r="C41">
-        <v>0.8698216936848959</v>
+        <v>2.30146750390625</v>
       </c>
       <c r="D41">
-        <v>2.066126134765625</v>
+        <v>2.111411909505208</v>
       </c>
       <c r="E41">
-        <v>1.46797391422526</v>
+        <v>2.206439706705729</v>
       </c>
       <c r="F41">
-        <v>0.3669934785563149</v>
+        <v>0.5516099266764323</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>994515.6962890625</v>
+        <v>2437485.73046875</v>
       </c>
       <c r="C42">
-        <v>0.9945156962890624</v>
+        <v>2.43748573046875</v>
       </c>
       <c r="D42">
-        <v>0.8698216936848959</v>
+        <v>2.30146750390625</v>
       </c>
       <c r="E42">
-        <v>0.9321686949869792</v>
+        <v>2.3694766171875</v>
       </c>
       <c r="F42">
-        <v>0.2330421737467447</v>
+        <v>0.592369154296875</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1623915.447265625</v>
+        <v>2569529.276692708</v>
       </c>
       <c r="C43">
-        <v>1.623915447265625</v>
+        <v>2.569529276692708</v>
       </c>
       <c r="D43">
-        <v>0.9945156962890624</v>
+        <v>2.43748573046875</v>
       </c>
       <c r="E43">
-        <v>1.309215571777344</v>
+        <v>2.503507503580729</v>
       </c>
       <c r="F43">
-        <v>0.3273038929443359</v>
+        <v>0.6258768758951823</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1375803.863932292</v>
+        <v>2716929.630208333</v>
       </c>
       <c r="C44">
-        <v>1.375803863932292</v>
+        <v>2.716929630208333</v>
       </c>
       <c r="D44">
-        <v>1.623915447265625</v>
+        <v>2.569529276692708</v>
       </c>
       <c r="E44">
-        <v>1.499859655598958</v>
+        <v>2.643229453450521</v>
       </c>
       <c r="F44">
-        <v>0.3749649138997395</v>
+        <v>0.6608073633626301</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>3516640.356770833</v>
+        <v>2877964.766927083</v>
       </c>
       <c r="C45">
-        <v>3.516640356770834</v>
+        <v>2.877964766927083</v>
       </c>
       <c r="D45">
-        <v>1.375803863932292</v>
+        <v>2.716929630208333</v>
       </c>
       <c r="E45">
-        <v>2.446222110351563</v>
+        <v>2.797447198567709</v>
       </c>
       <c r="F45">
-        <v>0.6115555275878906</v>
+        <v>0.699361799641927</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>2047421.134765625</v>
+        <v>2954226.1484375</v>
       </c>
       <c r="C46">
-        <v>2.047421134765625</v>
+        <v>2.9542261484375</v>
       </c>
       <c r="D46">
-        <v>3.516640356770834</v>
+        <v>2.877964766927083</v>
       </c>
       <c r="E46">
-        <v>2.782030745768229</v>
+        <v>2.916095457682292</v>
       </c>
       <c r="F46">
-        <v>0.6955076864420573</v>
+        <v>0.7290238644205729</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1628124.591145833</v>
+        <v>2937693.569010417</v>
       </c>
       <c r="C47">
-        <v>1.628124591145833</v>
+        <v>2.937693569010416</v>
       </c>
       <c r="D47">
-        <v>2.047421134765625</v>
+        <v>2.9542261484375</v>
       </c>
       <c r="E47">
-        <v>1.837772862955729</v>
+        <v>2.945959858723958</v>
       </c>
       <c r="F47">
-        <v>0.4594432157389322</v>
+        <v>0.7364899646809895</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1462483.84765625</v>
+        <v>3020503.787760417</v>
       </c>
       <c r="C48">
-        <v>1.46248384765625</v>
+        <v>3.020503787760417</v>
       </c>
       <c r="D48">
-        <v>1.628124591145833</v>
+        <v>2.937693569010416</v>
       </c>
       <c r="E48">
-        <v>1.545304219401042</v>
+        <v>2.979098678385417</v>
       </c>
       <c r="F48">
-        <v>0.3863260548502604</v>
+        <v>0.7447746695963542</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,19 +1639,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>2498838.94140625</v>
+        <v>3196022.669270833</v>
       </c>
       <c r="C49">
-        <v>2.49883894140625</v>
+        <v>3.196022669270834</v>
       </c>
       <c r="D49">
-        <v>1.46248384765625</v>
+        <v>3.020503787760417</v>
       </c>
       <c r="E49">
-        <v>1.98066139453125</v>
+        <v>3.108263228515625</v>
       </c>
       <c r="F49">
-        <v>0.4951653486328125</v>
+        <v>0.7770658071289062</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>2461807.668619792</v>
+        <v>3195557.708333333</v>
       </c>
       <c r="C50">
-        <v>2.461807668619792</v>
+        <v>3.195557708333333</v>
       </c>
       <c r="D50">
-        <v>2.49883894140625</v>
+        <v>3.196022669270834</v>
       </c>
       <c r="E50">
-        <v>2.48032330501302</v>
+        <v>3.195790188802083</v>
       </c>
       <c r="F50">
-        <v>0.6200808262532551</v>
+        <v>0.7989475472005209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,19 +1679,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>2786718.78125</v>
+        <v>3245345.85546875</v>
       </c>
       <c r="C51">
-        <v>2.78671878125</v>
+        <v>3.24534585546875</v>
       </c>
       <c r="D51">
-        <v>2.461807668619792</v>
+        <v>3.195557708333333</v>
       </c>
       <c r="E51">
-        <v>2.624263224934896</v>
+        <v>3.220451781901041</v>
       </c>
       <c r="F51">
-        <v>0.6560658062337239</v>
+        <v>0.8051129454752602</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,19 +1699,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>2794037.104817708</v>
+        <v>3225369.536458333</v>
       </c>
       <c r="C52">
-        <v>2.794037104817709</v>
+        <v>3.225369536458333</v>
       </c>
       <c r="D52">
-        <v>2.78671878125</v>
+        <v>3.24534585546875</v>
       </c>
       <c r="E52">
-        <v>2.790377943033854</v>
+        <v>3.235357695963542</v>
       </c>
       <c r="F52">
-        <v>0.6975944857584635</v>
+        <v>0.8088394239908854</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3520625.571940104</v>
+        <v>3313122.616536458</v>
       </c>
       <c r="C53">
-        <v>3.520625571940104</v>
+        <v>3.313122616536458</v>
       </c>
       <c r="D53">
-        <v>2.794037104817709</v>
+        <v>3.225369536458333</v>
       </c>
       <c r="E53">
-        <v>3.157331338378906</v>
+        <v>3.269246076497396</v>
       </c>
       <c r="F53">
-        <v>0.7893328345947265</v>
+        <v>0.817311519124349</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>3000272.104817708</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3.000272104817708</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3.520625571940104</v>
+        <v>3.313122616536458</v>
       </c>
       <c r="E54">
-        <v>3.260448838378906</v>
+        <v>1.656561308268229</v>
       </c>
       <c r="F54">
-        <v>0.8151122095947265</v>
+        <v>0.4141403270670572</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>3485707.020833333</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>3.485707020833334</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>3.000272104817708</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3.242989562825521</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.8107473907063802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>2832273.706380208</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>2.832273706380208</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3.485707020833334</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3.158990363606772</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.7897475909016927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,19 +1799,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>1758648.350260417</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1.758648350260417</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2.832273706380208</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2.295461028320313</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.5738652570800781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1819,19 +1819,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1119833.602213542</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1.119833602213542</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1.758648350260417</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1.439240976236979</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.3598102440592447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1839,19 +1839,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1157418.251953125</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1.157418251953125</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1.119833602213542</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1.138625927083333</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.2846564817708332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1859,19 +1859,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1295610.6640625</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1.2956106640625</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1.157418251953125</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1.226514458007812</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.3066286145019531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1879,19 +1879,19 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1200612.047526042</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>1.200612047526042</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>1.2956106640625</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1.248111355794271</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.3120278389485676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1899,19 +1899,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>343404.731282552</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.343404731282552</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1.200612047526042</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0.7720083894042968</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.1930020973510741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.343404731282552</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0.171702365641276</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.0429255914103189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">

--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-06-19 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-19 23:45:00+00:00</t>
+    <t>2024-06-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-20 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1139,19 +1139,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>689.099866231283</v>
+        <v>477.319564819336</v>
       </c>
       <c r="C24">
-        <v>0.0006890998662312</v>
+        <v>0.0004773195648193</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0003445499331156</v>
+        <v>0.0002386597824096</v>
       </c>
       <c r="F24">
-        <v>8.613748327891039E-05</v>
+        <v>5.9664945602417E-05</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,19 +1159,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>7859.702987670898</v>
+        <v>9669.322886149088</v>
       </c>
       <c r="C25">
-        <v>0.007859702987670801</v>
+        <v>0.009669322886149001</v>
       </c>
       <c r="D25">
-        <v>0.0006890998662312</v>
+        <v>0.0004773195648193</v>
       </c>
       <c r="E25">
-        <v>0.004274401426951</v>
+        <v>0.0050733212254842</v>
       </c>
       <c r="F25">
-        <v>0.0010686003567377</v>
+        <v>0.001268330306371</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,19 +1179,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>21855.46544392904</v>
+        <v>22303.94885253906</v>
       </c>
       <c r="C26">
-        <v>0.021855465443929</v>
+        <v>0.022303948852539</v>
       </c>
       <c r="D26">
-        <v>0.007859702987670801</v>
+        <v>0.009669322886149001</v>
       </c>
       <c r="E26">
-        <v>0.0148575842157999</v>
+        <v>0.015986635869344</v>
       </c>
       <c r="F26">
-        <v>0.0037143960539499</v>
+        <v>0.003996658967336</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>47716.76338704427</v>
+        <v>47434.49605305989</v>
       </c>
       <c r="C27">
-        <v>0.0477167633870442</v>
+        <v>0.0474344960530598</v>
       </c>
       <c r="D27">
-        <v>0.021855465443929</v>
+        <v>0.022303948852539</v>
       </c>
       <c r="E27">
-        <v>0.0347861144154866</v>
+        <v>0.0348692224527994</v>
       </c>
       <c r="F27">
-        <v>0.008696528603871601</v>
+        <v>0.0087173056131998</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>66857.48278808594</v>
+        <v>79177.75773111981</v>
       </c>
       <c r="C28">
-        <v>0.0668574827880859</v>
+        <v>0.07917775773111971</v>
       </c>
       <c r="D28">
-        <v>0.0477167633870442</v>
+        <v>0.0474344960530598</v>
       </c>
       <c r="E28">
-        <v>0.057287123087565</v>
+        <v>0.0633061268920897</v>
       </c>
       <c r="F28">
-        <v>0.0143217807718912</v>
+        <v>0.0158265317230223</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>86289.01322428384</v>
+        <v>124548.9918619792</v>
       </c>
       <c r="C29">
-        <v>0.0862890132242838</v>
+        <v>0.1245489918619791</v>
       </c>
       <c r="D29">
-        <v>0.0668574827880859</v>
+        <v>0.07917775773111971</v>
       </c>
       <c r="E29">
-        <v>0.0765732480061848</v>
+        <v>0.1018633747965493</v>
       </c>
       <c r="F29">
-        <v>0.0191433120015461</v>
+        <v>0.0254658436991372</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>130161.9264322917</v>
+        <v>153450.9052734375</v>
       </c>
       <c r="C30">
-        <v>0.1301619264322915</v>
+        <v>0.1534509052734374</v>
       </c>
       <c r="D30">
-        <v>0.0862890132242838</v>
+        <v>0.1245489918619791</v>
       </c>
       <c r="E30">
-        <v>0.1082254698282877</v>
+        <v>0.1389999485677083</v>
       </c>
       <c r="F30">
-        <v>0.0270563674570719</v>
+        <v>0.034749987141927</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>229625.5572102864</v>
+        <v>265880.1848958333</v>
       </c>
       <c r="C31">
-        <v>0.2296255572102864</v>
+        <v>0.2658801848958333</v>
       </c>
       <c r="D31">
-        <v>0.1301619264322915</v>
+        <v>0.1534509052734374</v>
       </c>
       <c r="E31">
-        <v>0.179893741821289</v>
+        <v>0.2096655450846353</v>
       </c>
       <c r="F31">
-        <v>0.0449734354553222</v>
+        <v>0.0524163862711587</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>386699.9888509115</v>
+        <v>403181.9327799479</v>
       </c>
       <c r="C32">
-        <v>0.3866999888509115</v>
+        <v>0.4031819327799478</v>
       </c>
       <c r="D32">
-        <v>0.2296255572102864</v>
+        <v>0.2658801848958333</v>
       </c>
       <c r="E32">
-        <v>0.3081627730305988</v>
+        <v>0.3345310588378905</v>
       </c>
       <c r="F32">
-        <v>0.0770406932576496</v>
+        <v>0.08363276470947259</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>594515.7807617188</v>
+        <v>560271.0364583333</v>
       </c>
       <c r="C33">
-        <v>0.5945157807617187</v>
+        <v>0.5602710364583333</v>
       </c>
       <c r="D33">
-        <v>0.3866999888509115</v>
+        <v>0.4031819327799478</v>
       </c>
       <c r="E33">
-        <v>0.4906078848063151</v>
+        <v>0.4817264846191405</v>
       </c>
       <c r="F33">
-        <v>0.1226519712015787</v>
+        <v>0.120431621154785</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>803619.599609375</v>
+        <v>742276.8916015625</v>
       </c>
       <c r="C34">
-        <v>0.8036195996093749</v>
+        <v>0.7422768916015624</v>
       </c>
       <c r="D34">
-        <v>0.5945157807617187</v>
+        <v>0.5602710364583333</v>
       </c>
       <c r="E34">
-        <v>0.6990676901855467</v>
+        <v>0.6512739640299479</v>
       </c>
       <c r="F34">
-        <v>0.1747669225463866</v>
+        <v>0.1628184910074869</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1028912.063802083</v>
+        <v>942833.2473958333</v>
       </c>
       <c r="C35">
-        <v>1.028912063802083</v>
+        <v>0.9428332473958332</v>
       </c>
       <c r="D35">
-        <v>0.8036195996093749</v>
+        <v>0.7422768916015624</v>
       </c>
       <c r="E35">
-        <v>0.9162658317057291</v>
+        <v>0.8425550694986979</v>
       </c>
       <c r="F35">
-        <v>0.2290664579264322</v>
+        <v>0.2106387673746744</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1262598.486653646</v>
+        <v>1151851.8125</v>
       </c>
       <c r="C36">
-        <v>1.262598486653646</v>
+        <v>1.1518518125</v>
       </c>
       <c r="D36">
-        <v>1.028912063802083</v>
+        <v>0.9428332473958332</v>
       </c>
       <c r="E36">
-        <v>1.145755275227865</v>
+        <v>1.047342529947917</v>
       </c>
       <c r="F36">
-        <v>0.2864388188069661</v>
+        <v>0.2618356324869791</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1464948.033203125</v>
+        <v>1379126.861328125</v>
       </c>
       <c r="C37">
-        <v>1.464948033203125</v>
+        <v>1.379126861328125</v>
       </c>
       <c r="D37">
-        <v>1.262598486653646</v>
+        <v>1.1518518125</v>
       </c>
       <c r="E37">
-        <v>1.363773259928386</v>
+        <v>1.265489336914063</v>
       </c>
       <c r="F37">
-        <v>0.3409433149820963</v>
+        <v>0.3163723342285155</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1688063.014322917</v>
+        <v>1592190.266276042</v>
       </c>
       <c r="C38">
-        <v>1.688063014322917</v>
+        <v>1.592190266276042</v>
       </c>
       <c r="D38">
-        <v>1.464948033203125</v>
+        <v>1.379126861328125</v>
       </c>
       <c r="E38">
-        <v>1.576505523763021</v>
+        <v>1.485658563802083</v>
       </c>
       <c r="F38">
-        <v>0.3941263809407551</v>
+        <v>0.3714146409505208</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1903729.349609375</v>
+        <v>1791481.400390625</v>
       </c>
       <c r="C39">
-        <v>1.903729349609375</v>
+        <v>1.791481400390625</v>
       </c>
       <c r="D39">
-        <v>1.688063014322917</v>
+        <v>1.592190266276042</v>
       </c>
       <c r="E39">
-        <v>1.795896181966146</v>
+        <v>1.691835833333333</v>
       </c>
       <c r="F39">
-        <v>0.4489740454915365</v>
+        <v>0.4229589583333333</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>2111411.909505208</v>
+        <v>1663421.220052083</v>
       </c>
       <c r="C40">
-        <v>2.111411909505208</v>
+        <v>1.663421220052083</v>
       </c>
       <c r="D40">
-        <v>1.903729349609375</v>
+        <v>1.791481400390625</v>
       </c>
       <c r="E40">
-        <v>2.007570629557291</v>
+        <v>1.727451310221354</v>
       </c>
       <c r="F40">
-        <v>0.5018926573893228</v>
+        <v>0.4318628275553384</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>2301467.50390625</v>
+        <v>2149416.268229167</v>
       </c>
       <c r="C41">
-        <v>2.30146750390625</v>
+        <v>2.149416268229167</v>
       </c>
       <c r="D41">
-        <v>2.111411909505208</v>
+        <v>1.663421220052083</v>
       </c>
       <c r="E41">
-        <v>2.206439706705729</v>
+        <v>1.906418744140625</v>
       </c>
       <c r="F41">
-        <v>0.5516099266764323</v>
+        <v>0.4766046860351563</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2437485.73046875</v>
+        <v>2380722.126302083</v>
       </c>
       <c r="C42">
-        <v>2.43748573046875</v>
+        <v>2.380722126302083</v>
       </c>
       <c r="D42">
-        <v>2.30146750390625</v>
+        <v>2.149416268229167</v>
       </c>
       <c r="E42">
-        <v>2.3694766171875</v>
+        <v>2.265069197265625</v>
       </c>
       <c r="F42">
-        <v>0.592369154296875</v>
+        <v>0.5662672993164063</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2569529.276692708</v>
+        <v>2513382.825520833</v>
       </c>
       <c r="C43">
-        <v>2.569529276692708</v>
+        <v>2.513382825520833</v>
       </c>
       <c r="D43">
-        <v>2.43748573046875</v>
+        <v>2.380722126302083</v>
       </c>
       <c r="E43">
-        <v>2.503507503580729</v>
+        <v>2.447052475911458</v>
       </c>
       <c r="F43">
-        <v>0.6258768758951823</v>
+        <v>0.6117631189778645</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>2716929.630208333</v>
+        <v>2610553.072916667</v>
       </c>
       <c r="C44">
-        <v>2.716929630208333</v>
+        <v>2.610553072916667</v>
       </c>
       <c r="D44">
-        <v>2.569529276692708</v>
+        <v>2.513382825520833</v>
       </c>
       <c r="E44">
-        <v>2.643229453450521</v>
+        <v>2.56196794921875</v>
       </c>
       <c r="F44">
-        <v>0.6608073633626301</v>
+        <v>0.6404919873046875</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2877964.766927083</v>
+        <v>2801555.65234375</v>
       </c>
       <c r="C45">
-        <v>2.877964766927083</v>
+        <v>2.80155565234375</v>
       </c>
       <c r="D45">
-        <v>2.716929630208333</v>
+        <v>2.610553072916667</v>
       </c>
       <c r="E45">
-        <v>2.797447198567709</v>
+        <v>2.706054362630208</v>
       </c>
       <c r="F45">
-        <v>0.699361799641927</v>
+        <v>0.676513590657552</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>2954226.1484375</v>
+        <v>2926482.61328125</v>
       </c>
       <c r="C46">
-        <v>2.9542261484375</v>
+        <v>2.92648261328125</v>
       </c>
       <c r="D46">
-        <v>2.877964766927083</v>
+        <v>2.80155565234375</v>
       </c>
       <c r="E46">
-        <v>2.916095457682292</v>
+        <v>2.8640191328125</v>
       </c>
       <c r="F46">
-        <v>0.7290238644205729</v>
+        <v>0.716004783203125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>2937693.569010417</v>
+        <v>3064571.563802083</v>
       </c>
       <c r="C47">
-        <v>2.937693569010416</v>
+        <v>3.064571563802083</v>
       </c>
       <c r="D47">
-        <v>2.9542261484375</v>
+        <v>2.92648261328125</v>
       </c>
       <c r="E47">
-        <v>2.945959858723958</v>
+        <v>2.995527088541666</v>
       </c>
       <c r="F47">
-        <v>0.7364899646809895</v>
+        <v>0.7488817721354166</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3020503.787760417</v>
+        <v>3145723.916666666</v>
       </c>
       <c r="C48">
-        <v>3.020503787760417</v>
+        <v>3.145723916666666</v>
       </c>
       <c r="D48">
-        <v>2.937693569010416</v>
+        <v>3.064571563802083</v>
       </c>
       <c r="E48">
-        <v>2.979098678385417</v>
+        <v>3.105147740234375</v>
       </c>
       <c r="F48">
-        <v>0.7447746695963542</v>
+        <v>0.7762869350585937</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,19 +1639,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>3196022.669270833</v>
+        <v>3282749.377604167</v>
       </c>
       <c r="C49">
-        <v>3.196022669270834</v>
+        <v>3.282749377604167</v>
       </c>
       <c r="D49">
-        <v>3.020503787760417</v>
+        <v>3.145723916666666</v>
       </c>
       <c r="E49">
-        <v>3.108263228515625</v>
+        <v>3.214236647135417</v>
       </c>
       <c r="F49">
-        <v>0.7770658071289062</v>
+        <v>0.803559161783854</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>3195557.708333333</v>
+        <v>3305515.59375</v>
       </c>
       <c r="C50">
-        <v>3.195557708333333</v>
+        <v>3.30551559375</v>
       </c>
       <c r="D50">
-        <v>3.196022669270834</v>
+        <v>3.282749377604167</v>
       </c>
       <c r="E50">
-        <v>3.195790188802083</v>
+        <v>3.294132485677084</v>
       </c>
       <c r="F50">
-        <v>0.7989475472005209</v>
+        <v>0.8235331214192709</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,19 +1679,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>3245345.85546875</v>
+        <v>3407572.5703125</v>
       </c>
       <c r="C51">
-        <v>3.24534585546875</v>
+        <v>3.4075725703125</v>
       </c>
       <c r="D51">
-        <v>3.195557708333333</v>
+        <v>3.30551559375</v>
       </c>
       <c r="E51">
-        <v>3.220451781901041</v>
+        <v>3.35654408203125</v>
       </c>
       <c r="F51">
-        <v>0.8051129454752602</v>
+        <v>0.8391360205078126</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,19 +1699,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>3225369.536458333</v>
+        <v>3442571.131510417</v>
       </c>
       <c r="C52">
-        <v>3.225369536458333</v>
+        <v>3.442571131510417</v>
       </c>
       <c r="D52">
-        <v>3.24534585546875</v>
+        <v>3.4075725703125</v>
       </c>
       <c r="E52">
-        <v>3.235357695963542</v>
+        <v>3.425071850911458</v>
       </c>
       <c r="F52">
-        <v>0.8088394239908854</v>
+        <v>0.8562679627278645</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3313122.616536458</v>
+        <v>3497265.533854167</v>
       </c>
       <c r="C53">
-        <v>3.313122616536458</v>
+        <v>3.497265533854167</v>
       </c>
       <c r="D53">
-        <v>3.225369536458333</v>
+        <v>3.442571131510417</v>
       </c>
       <c r="E53">
-        <v>3.269246076497396</v>
+        <v>3.469918332682291</v>
       </c>
       <c r="F53">
-        <v>0.817311519124349</v>
+        <v>0.8674795831705728</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3474681.3046875</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3.4746813046875</v>
       </c>
       <c r="D54">
-        <v>3.313122616536458</v>
+        <v>3.497265533854167</v>
       </c>
       <c r="E54">
-        <v>1.656561308268229</v>
+        <v>3.485973419270833</v>
       </c>
       <c r="F54">
-        <v>0.4141403270670572</v>
+        <v>0.8714933548177082</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3539855.645833333</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3.539855645833333</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>3.4746813046875</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3.507268475260417</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.8768171188151039</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3445885.184895833</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3.445885184895833</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>3.539855645833333</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3.492870415364584</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.8732176038411457</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,19 +1799,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3484593.58203125</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>3.48459358203125</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3.445885184895833</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3.465239383463541</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.8663098458658853</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1819,19 +1819,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3515476.244791666</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3.515476244791667</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>3.48459358203125</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3.500034913411458</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.8750087283528645</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1839,19 +1839,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3418572.27734375</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>3.41857227734375</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3.515476244791667</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>3.467024261067708</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.8667560652669271</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1859,19 +1859,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>3361371</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3.361371</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3.41857227734375</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>3.389971638671875</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.8474929096679688</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>3.361371</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1.6806855</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.420171375</v>
       </c>
     </row>
     <row r="62" spans="1:6">

--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-06-20 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-20 23:45:00+00:00</t>
+    <t>2024-06-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-06-25 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1139,19 +1139,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>477.319564819336</v>
+        <v>981.592819213867</v>
       </c>
       <c r="C24">
-        <v>0.0004773195648193</v>
+        <v>0.0009815928192138</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0002386597824096</v>
+        <v>0.0004907964096069</v>
       </c>
       <c r="F24">
-        <v>5.9664945602417E-05</v>
+        <v>0.0001226991024017</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,19 +1159,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>9669.322886149088</v>
+        <v>8783.786763509113</v>
       </c>
       <c r="C25">
-        <v>0.009669322886149001</v>
+        <v>0.0087837867635091</v>
       </c>
       <c r="D25">
-        <v>0.0004773195648193</v>
+        <v>0.0009815928192138</v>
       </c>
       <c r="E25">
-        <v>0.0050733212254842</v>
+        <v>0.0048826897913614</v>
       </c>
       <c r="F25">
-        <v>0.001268330306371</v>
+        <v>0.0012206724478403</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,19 +1179,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>22303.94885253906</v>
+        <v>19538.31431070964</v>
       </c>
       <c r="C26">
-        <v>0.022303948852539</v>
+        <v>0.0195383143107096</v>
       </c>
       <c r="D26">
-        <v>0.009669322886149001</v>
+        <v>0.0087837867635091</v>
       </c>
       <c r="E26">
-        <v>0.015986635869344</v>
+        <v>0.0141610505371093</v>
       </c>
       <c r="F26">
-        <v>0.003996658967336</v>
+        <v>0.0035402626342773</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>47434.49605305989</v>
+        <v>32863.62298583984</v>
       </c>
       <c r="C27">
-        <v>0.0474344960530598</v>
+        <v>0.0328636229858398</v>
       </c>
       <c r="D27">
-        <v>0.022303948852539</v>
+        <v>0.0195383143107096</v>
       </c>
       <c r="E27">
-        <v>0.0348692224527994</v>
+        <v>0.0262009686482747</v>
       </c>
       <c r="F27">
-        <v>0.0087173056131998</v>
+        <v>0.006550242162068599</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>79177.75773111981</v>
+        <v>91083.99003092447</v>
       </c>
       <c r="C28">
-        <v>0.07917775773111971</v>
+        <v>0.09108399003092429</v>
       </c>
       <c r="D28">
-        <v>0.0474344960530598</v>
+        <v>0.0328636229858398</v>
       </c>
       <c r="E28">
-        <v>0.0633061268920897</v>
+        <v>0.061973806508382</v>
       </c>
       <c r="F28">
-        <v>0.0158265317230223</v>
+        <v>0.0154934516270954</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>124548.9918619792</v>
+        <v>148583.052734375</v>
       </c>
       <c r="C29">
-        <v>0.1245489918619791</v>
+        <v>0.1485830527343749</v>
       </c>
       <c r="D29">
-        <v>0.07917775773111971</v>
+        <v>0.09108399003092429</v>
       </c>
       <c r="E29">
-        <v>0.1018633747965493</v>
+        <v>0.1198335213826497</v>
       </c>
       <c r="F29">
-        <v>0.0254658436991372</v>
+        <v>0.0299583803456624</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>153450.9052734375</v>
+        <v>211957.6834309896</v>
       </c>
       <c r="C30">
-        <v>0.1534509052734374</v>
+        <v>0.2119576834309895</v>
       </c>
       <c r="D30">
-        <v>0.1245489918619791</v>
+        <v>0.1485830527343749</v>
       </c>
       <c r="E30">
-        <v>0.1389999485677083</v>
+        <v>0.1802703680826823</v>
       </c>
       <c r="F30">
-        <v>0.034749987141927</v>
+        <v>0.0450675920206705</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>265880.1848958333</v>
+        <v>330819.7438151042</v>
       </c>
       <c r="C31">
-        <v>0.2658801848958333</v>
+        <v>0.3308197438151041</v>
       </c>
       <c r="D31">
-        <v>0.1534509052734374</v>
+        <v>0.2119576834309895</v>
       </c>
       <c r="E31">
-        <v>0.2096655450846353</v>
+        <v>0.2713887136230468</v>
       </c>
       <c r="F31">
-        <v>0.0524163862711587</v>
+        <v>0.0678471784057616</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>403181.9327799479</v>
+        <v>434977.7942708334</v>
       </c>
       <c r="C32">
-        <v>0.4031819327799478</v>
+        <v>0.4349777942708333</v>
       </c>
       <c r="D32">
-        <v>0.2658801848958333</v>
+        <v>0.3308197438151041</v>
       </c>
       <c r="E32">
-        <v>0.3345310588378905</v>
+        <v>0.3828987690429687</v>
       </c>
       <c r="F32">
-        <v>0.08363276470947259</v>
+        <v>0.09572469226074209</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>560271.0364583333</v>
+        <v>704467.9103190105</v>
       </c>
       <c r="C33">
-        <v>0.5602710364583333</v>
+        <v>0.7044679103190103</v>
       </c>
       <c r="D33">
-        <v>0.4031819327799478</v>
+        <v>0.4349777942708333</v>
       </c>
       <c r="E33">
-        <v>0.4817264846191405</v>
+        <v>0.5697228522949218</v>
       </c>
       <c r="F33">
-        <v>0.120431621154785</v>
+        <v>0.1424307130737304</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>742276.8916015625</v>
+        <v>792018.859375</v>
       </c>
       <c r="C34">
-        <v>0.7422768916015624</v>
+        <v>0.7920188593749999</v>
       </c>
       <c r="D34">
-        <v>0.5602710364583333</v>
+        <v>0.7044679103190103</v>
       </c>
       <c r="E34">
-        <v>0.6512739640299479</v>
+        <v>0.7482433848470051</v>
       </c>
       <c r="F34">
-        <v>0.1628184910074869</v>
+        <v>0.1870608462117512</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>942833.2473958333</v>
+        <v>971652.407877604</v>
       </c>
       <c r="C35">
-        <v>0.9428332473958332</v>
+        <v>0.9716524078776041</v>
       </c>
       <c r="D35">
-        <v>0.7422768916015624</v>
+        <v>0.7920188593749999</v>
       </c>
       <c r="E35">
-        <v>0.8425550694986979</v>
+        <v>0.8818356336263018</v>
       </c>
       <c r="F35">
-        <v>0.2106387673746744</v>
+        <v>0.2204589084065754</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1151851.8125</v>
+        <v>1220857.216145833</v>
       </c>
       <c r="C36">
-        <v>1.1518518125</v>
+        <v>1.220857216145833</v>
       </c>
       <c r="D36">
-        <v>0.9428332473958332</v>
+        <v>0.9716524078776041</v>
       </c>
       <c r="E36">
-        <v>1.047342529947917</v>
+        <v>1.096254812011719</v>
       </c>
       <c r="F36">
-        <v>0.2618356324869791</v>
+        <v>0.2740637030029296</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1379126.861328125</v>
+        <v>1435919.516276042</v>
       </c>
       <c r="C37">
-        <v>1.379126861328125</v>
+        <v>1.435919516276042</v>
       </c>
       <c r="D37">
-        <v>1.1518518125</v>
+        <v>1.220857216145833</v>
       </c>
       <c r="E37">
-        <v>1.265489336914063</v>
+        <v>1.328388366210937</v>
       </c>
       <c r="F37">
-        <v>0.3163723342285155</v>
+        <v>0.3320970915527343</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1592190.266276042</v>
+        <v>1589647.139322917</v>
       </c>
       <c r="C38">
-        <v>1.592190266276042</v>
+        <v>1.589647139322917</v>
       </c>
       <c r="D38">
-        <v>1.379126861328125</v>
+        <v>1.435919516276042</v>
       </c>
       <c r="E38">
-        <v>1.485658563802083</v>
+        <v>1.512783327799479</v>
       </c>
       <c r="F38">
-        <v>0.3714146409505208</v>
+        <v>0.3781958319498697</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1791481.400390625</v>
+        <v>1757917.608723958</v>
       </c>
       <c r="C39">
-        <v>1.791481400390625</v>
+        <v>1.757917608723958</v>
       </c>
       <c r="D39">
-        <v>1.592190266276042</v>
+        <v>1.589647139322917</v>
       </c>
       <c r="E39">
-        <v>1.691835833333333</v>
+        <v>1.673782374023437</v>
       </c>
       <c r="F39">
-        <v>0.4229589583333333</v>
+        <v>0.4184455935058593</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1663421.220052083</v>
+        <v>1924739.938802083</v>
       </c>
       <c r="C40">
-        <v>1.663421220052083</v>
+        <v>1.924739938802083</v>
       </c>
       <c r="D40">
-        <v>1.791481400390625</v>
+        <v>1.757917608723958</v>
       </c>
       <c r="E40">
-        <v>1.727451310221354</v>
+        <v>1.841328773763021</v>
       </c>
       <c r="F40">
-        <v>0.4318628275553384</v>
+        <v>0.4603321934407552</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>2149416.268229167</v>
+        <v>2121692.915364583</v>
       </c>
       <c r="C41">
-        <v>2.149416268229167</v>
+        <v>2.121692915364583</v>
       </c>
       <c r="D41">
-        <v>1.663421220052083</v>
+        <v>1.924739938802083</v>
       </c>
       <c r="E41">
-        <v>1.906418744140625</v>
+        <v>2.023216427083333</v>
       </c>
       <c r="F41">
-        <v>0.4766046860351563</v>
+        <v>0.5058041067708332</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2380722.126302083</v>
+        <v>2300498.057291667</v>
       </c>
       <c r="C42">
-        <v>2.380722126302083</v>
+        <v>2.300498057291667</v>
       </c>
       <c r="D42">
-        <v>2.149416268229167</v>
+        <v>2.121692915364583</v>
       </c>
       <c r="E42">
-        <v>2.265069197265625</v>
+        <v>2.211095486328125</v>
       </c>
       <c r="F42">
-        <v>0.5662672993164063</v>
+        <v>0.5527738715820312</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2513382.825520833</v>
+        <v>2222340.139322917</v>
       </c>
       <c r="C43">
-        <v>2.513382825520833</v>
+        <v>2.222340139322917</v>
       </c>
       <c r="D43">
-        <v>2.380722126302083</v>
+        <v>2.300498057291667</v>
       </c>
       <c r="E43">
-        <v>2.447052475911458</v>
+        <v>2.261419098307292</v>
       </c>
       <c r="F43">
-        <v>0.6117631189778645</v>
+        <v>0.5653547745768228</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>2610553.072916667</v>
+        <v>2621090.74609375</v>
       </c>
       <c r="C44">
-        <v>2.610553072916667</v>
+        <v>2.62109074609375</v>
       </c>
       <c r="D44">
-        <v>2.513382825520833</v>
+        <v>2.222340139322917</v>
       </c>
       <c r="E44">
-        <v>2.56196794921875</v>
+        <v>2.421715442708333</v>
       </c>
       <c r="F44">
-        <v>0.6404919873046875</v>
+        <v>0.6054288606770832</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2801555.65234375</v>
+        <v>2746057.751302083</v>
       </c>
       <c r="C45">
-        <v>2.80155565234375</v>
+        <v>2.746057751302083</v>
       </c>
       <c r="D45">
-        <v>2.610553072916667</v>
+        <v>2.62109074609375</v>
       </c>
       <c r="E45">
-        <v>2.706054362630208</v>
+        <v>2.683574248697917</v>
       </c>
       <c r="F45">
-        <v>0.676513590657552</v>
+        <v>0.670893562174479</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>2926482.61328125</v>
+        <v>2883473.609375</v>
       </c>
       <c r="C46">
-        <v>2.92648261328125</v>
+        <v>2.883473609375</v>
       </c>
       <c r="D46">
-        <v>2.80155565234375</v>
+        <v>2.746057751302083</v>
       </c>
       <c r="E46">
-        <v>2.8640191328125</v>
+        <v>2.814765680338541</v>
       </c>
       <c r="F46">
-        <v>0.716004783203125</v>
+        <v>0.7036914200846354</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>3064571.563802083</v>
+        <v>2986086.264322917</v>
       </c>
       <c r="C47">
-        <v>3.064571563802083</v>
+        <v>2.986086264322917</v>
       </c>
       <c r="D47">
-        <v>2.92648261328125</v>
+        <v>2.883473609375</v>
       </c>
       <c r="E47">
-        <v>2.995527088541666</v>
+        <v>2.934779936848958</v>
       </c>
       <c r="F47">
-        <v>0.7488817721354166</v>
+        <v>0.7336949842122394</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3145723.916666666</v>
+        <v>3040622.3984375</v>
       </c>
       <c r="C48">
-        <v>3.145723916666666</v>
+        <v>3.0406223984375</v>
       </c>
       <c r="D48">
-        <v>3.064571563802083</v>
+        <v>2.986086264322917</v>
       </c>
       <c r="E48">
-        <v>3.105147740234375</v>
+        <v>3.013354331380208</v>
       </c>
       <c r="F48">
-        <v>0.7762869350585937</v>
+        <v>0.7533385828450521</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,19 +1639,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>3282749.377604167</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>3.282749377604167</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>3.145723916666666</v>
+        <v>3.0406223984375</v>
       </c>
       <c r="E49">
-        <v>3.214236647135417</v>
+        <v>1.52031119921875</v>
       </c>
       <c r="F49">
-        <v>0.803559161783854</v>
+        <v>0.3800777998046875</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>3305515.59375</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>3.30551559375</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>3.282749377604167</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>3.294132485677084</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.8235331214192709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,19 +1679,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>3407572.5703125</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>3.4075725703125</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>3.30551559375</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>3.35654408203125</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.8391360205078126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,19 +1699,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>3442571.131510417</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>3.442571131510417</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>3.4075725703125</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3.425071850911458</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.8562679627278645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3497265.533854167</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>3.497265533854167</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>3.442571131510417</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3.469918332682291</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.8674795831705728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>3474681.3046875</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3.4746813046875</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3.497265533854167</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>3.485973419270833</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.8714933548177082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>3539855.645833333</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>3.539855645833333</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>3.4746813046875</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3.507268475260417</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.8768171188151039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>3445885.184895833</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>3.445885184895833</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3.539855645833333</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3.492870415364584</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.8732176038411457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,19 +1799,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>3484593.58203125</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>3.48459358203125</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>3.445885184895833</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>3.465239383463541</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.8663098458658853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1819,19 +1819,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>3515476.244791666</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>3.515476244791667</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>3.48459358203125</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>3.500034913411458</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.8750087283528645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1839,19 +1839,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>3418572.27734375</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>3.41857227734375</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>3.515476244791667</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>3.467024261067708</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.8667560652669271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1859,19 +1859,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>3361371</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>3.361371</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>3.41857227734375</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>3.389971638671875</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.8474929096679688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>3.361371</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1.6806855</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.420171375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">

--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-06-25 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-06-25 23:45:00+00:00</t>
+    <t>2024-07-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-07-30 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1139,19 +1139,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>981.592819213867</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0009815928192138</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0004907964096069</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0001226991024017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,19 +1159,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>8783.786763509113</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0087837867635091</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0009815928192138</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0048826897913614</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0012206724478403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,19 +1179,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>19538.31431070964</v>
+        <v>1642.31844329834</v>
       </c>
       <c r="C26">
-        <v>0.0195383143107096</v>
+        <v>0.0016423184432983</v>
       </c>
       <c r="D26">
-        <v>0.0087837867635091</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.0141610505371093</v>
+        <v>0.0008211592216491</v>
       </c>
       <c r="F26">
-        <v>0.0035402626342773</v>
+        <v>0.0002052898054122</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>32863.62298583984</v>
+        <v>12806.68037923177</v>
       </c>
       <c r="C27">
-        <v>0.0328636229858398</v>
+        <v>0.0128066803792317</v>
       </c>
       <c r="D27">
-        <v>0.0195383143107096</v>
+        <v>0.0016423184432983</v>
       </c>
       <c r="E27">
-        <v>0.0262009686482747</v>
+        <v>0.007224499411265</v>
       </c>
       <c r="F27">
-        <v>0.006550242162068599</v>
+        <v>0.0018061248528162</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>91083.99003092447</v>
+        <v>27043.73956298828</v>
       </c>
       <c r="C28">
-        <v>0.09108399003092429</v>
+        <v>0.0270437395629882</v>
       </c>
       <c r="D28">
-        <v>0.0328636229858398</v>
+        <v>0.0128066803792317</v>
       </c>
       <c r="E28">
-        <v>0.061973806508382</v>
+        <v>0.0199252099711099</v>
       </c>
       <c r="F28">
-        <v>0.0154934516270954</v>
+        <v>0.0049813024927774</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>148583.052734375</v>
+        <v>54038.58296712239</v>
       </c>
       <c r="C29">
-        <v>0.1485830527343749</v>
+        <v>0.0540385829671223</v>
       </c>
       <c r="D29">
-        <v>0.09108399003092429</v>
+        <v>0.0270437395629882</v>
       </c>
       <c r="E29">
-        <v>0.1198335213826497</v>
+        <v>0.0405411612650552</v>
       </c>
       <c r="F29">
-        <v>0.0299583803456624</v>
+        <v>0.0101352903162637</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>211957.6834309896</v>
+        <v>88996.98274739584</v>
       </c>
       <c r="C30">
-        <v>0.2119576834309895</v>
+        <v>0.0889969827473958</v>
       </c>
       <c r="D30">
-        <v>0.1485830527343749</v>
+        <v>0.0540385829671223</v>
       </c>
       <c r="E30">
-        <v>0.1802703680826823</v>
+        <v>0.0715177828572591</v>
       </c>
       <c r="F30">
-        <v>0.0450675920206705</v>
+        <v>0.0178794457143147</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>330819.7438151042</v>
+        <v>147492.6302083333</v>
       </c>
       <c r="C31">
-        <v>0.3308197438151041</v>
+        <v>0.1474926302083333</v>
       </c>
       <c r="D31">
-        <v>0.2119576834309895</v>
+        <v>0.0889969827473958</v>
       </c>
       <c r="E31">
-        <v>0.2713887136230468</v>
+        <v>0.1182448064778645</v>
       </c>
       <c r="F31">
-        <v>0.0678471784057616</v>
+        <v>0.0295612016194661</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>434977.7942708334</v>
+        <v>271976.7798665364</v>
       </c>
       <c r="C32">
-        <v>0.4349777942708333</v>
+        <v>0.2719767798665364</v>
       </c>
       <c r="D32">
-        <v>0.3308197438151041</v>
+        <v>0.1474926302083333</v>
       </c>
       <c r="E32">
-        <v>0.3828987690429687</v>
+        <v>0.2097347050374348</v>
       </c>
       <c r="F32">
-        <v>0.09572469226074209</v>
+        <v>0.0524336762593586</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>704467.9103190105</v>
+        <v>429977.9078776041</v>
       </c>
       <c r="C33">
-        <v>0.7044679103190103</v>
+        <v>0.4299779078776041</v>
       </c>
       <c r="D33">
-        <v>0.4349777942708333</v>
+        <v>0.2719767798665364</v>
       </c>
       <c r="E33">
-        <v>0.5697228522949218</v>
+        <v>0.3509773438720702</v>
       </c>
       <c r="F33">
-        <v>0.1424307130737304</v>
+        <v>0.08774433596801751</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>792018.859375</v>
+        <v>633277.2262369791</v>
       </c>
       <c r="C34">
-        <v>0.7920188593749999</v>
+        <v>0.6332772262369791</v>
       </c>
       <c r="D34">
-        <v>0.7044679103190103</v>
+        <v>0.4299779078776041</v>
       </c>
       <c r="E34">
-        <v>0.7482433848470051</v>
+        <v>0.5316275670572916</v>
       </c>
       <c r="F34">
-        <v>0.1870608462117512</v>
+        <v>0.1329068917643228</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>971652.407877604</v>
+        <v>863057.2936197917</v>
       </c>
       <c r="C35">
-        <v>0.9716524078776041</v>
+        <v>0.8630572936197917</v>
       </c>
       <c r="D35">
-        <v>0.7920188593749999</v>
+        <v>0.6332772262369791</v>
       </c>
       <c r="E35">
-        <v>0.8818356336263018</v>
+        <v>0.7481672599283853</v>
       </c>
       <c r="F35">
-        <v>0.2204589084065754</v>
+        <v>0.1870418149820962</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1220857.216145833</v>
+        <v>1109280.420572917</v>
       </c>
       <c r="C36">
-        <v>1.220857216145833</v>
+        <v>1.109280420572917</v>
       </c>
       <c r="D36">
-        <v>0.9716524078776041</v>
+        <v>0.8630572936197917</v>
       </c>
       <c r="E36">
-        <v>1.096254812011719</v>
+        <v>0.9861688570963542</v>
       </c>
       <c r="F36">
-        <v>0.2740637030029296</v>
+        <v>0.2465422142740885</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1435919.516276042</v>
+        <v>1343670.201171875</v>
       </c>
       <c r="C37">
-        <v>1.435919516276042</v>
+        <v>1.343670201171875</v>
       </c>
       <c r="D37">
-        <v>1.220857216145833</v>
+        <v>1.109280420572917</v>
       </c>
       <c r="E37">
-        <v>1.328388366210937</v>
+        <v>1.226475310872396</v>
       </c>
       <c r="F37">
-        <v>0.3320970915527343</v>
+        <v>0.3066188277180988</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1589647.139322917</v>
+        <v>1593599.343098958</v>
       </c>
       <c r="C38">
-        <v>1.589647139322917</v>
+        <v>1.593599343098958</v>
       </c>
       <c r="D38">
-        <v>1.435919516276042</v>
+        <v>1.343670201171875</v>
       </c>
       <c r="E38">
-        <v>1.512783327799479</v>
+        <v>1.468634772135417</v>
       </c>
       <c r="F38">
-        <v>0.3781958319498697</v>
+        <v>0.3671586930338541</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1757917.608723958</v>
+        <v>1845423.793619792</v>
       </c>
       <c r="C39">
-        <v>1.757917608723958</v>
+        <v>1.845423793619792</v>
       </c>
       <c r="D39">
-        <v>1.589647139322917</v>
+        <v>1.593599343098958</v>
       </c>
       <c r="E39">
-        <v>1.673782374023437</v>
+        <v>1.719511568359375</v>
       </c>
       <c r="F39">
-        <v>0.4184455935058593</v>
+        <v>0.4298778920898437</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1924739.938802083</v>
+        <v>2070057.217447917</v>
       </c>
       <c r="C40">
-        <v>1.924739938802083</v>
+        <v>2.070057217447917</v>
       </c>
       <c r="D40">
-        <v>1.757917608723958</v>
+        <v>1.845423793619792</v>
       </c>
       <c r="E40">
-        <v>1.841328773763021</v>
+        <v>1.957740505533854</v>
       </c>
       <c r="F40">
-        <v>0.4603321934407552</v>
+        <v>0.4894351263834635</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>2121692.915364583</v>
+        <v>2285382.825520833</v>
       </c>
       <c r="C41">
-        <v>2.121692915364583</v>
+        <v>2.285382825520833</v>
       </c>
       <c r="D41">
-        <v>1.924739938802083</v>
+        <v>2.070057217447917</v>
       </c>
       <c r="E41">
-        <v>2.023216427083333</v>
+        <v>2.177720021484375</v>
       </c>
       <c r="F41">
-        <v>0.5058041067708332</v>
+        <v>0.5444300053710937</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2300498.057291667</v>
+        <v>2497296.0078125</v>
       </c>
       <c r="C42">
-        <v>2.300498057291667</v>
+        <v>2.4972960078125</v>
       </c>
       <c r="D42">
-        <v>2.121692915364583</v>
+        <v>2.285382825520833</v>
       </c>
       <c r="E42">
-        <v>2.211095486328125</v>
+        <v>2.391339416666667</v>
       </c>
       <c r="F42">
-        <v>0.5527738715820312</v>
+        <v>0.5978348541666667</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2222340.139322917</v>
+        <v>2689228.684895833</v>
       </c>
       <c r="C43">
-        <v>2.222340139322917</v>
+        <v>2.689228684895833</v>
       </c>
       <c r="D43">
-        <v>2.300498057291667</v>
+        <v>2.4972960078125</v>
       </c>
       <c r="E43">
-        <v>2.261419098307292</v>
+        <v>2.593262346354167</v>
       </c>
       <c r="F43">
-        <v>0.5653547745768228</v>
+        <v>0.6483155865885417</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>2621090.74609375</v>
+        <v>2875311.48828125</v>
       </c>
       <c r="C44">
-        <v>2.62109074609375</v>
+        <v>2.87531148828125</v>
       </c>
       <c r="D44">
-        <v>2.222340139322917</v>
+        <v>2.689228684895833</v>
       </c>
       <c r="E44">
-        <v>2.421715442708333</v>
+        <v>2.782270086588541</v>
       </c>
       <c r="F44">
-        <v>0.6054288606770832</v>
+        <v>0.6955675216471353</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2746057.751302083</v>
+        <v>2976534.640625</v>
       </c>
       <c r="C45">
-        <v>2.746057751302083</v>
+        <v>2.976534640625</v>
       </c>
       <c r="D45">
-        <v>2.62109074609375</v>
+        <v>2.87531148828125</v>
       </c>
       <c r="E45">
-        <v>2.683574248697917</v>
+        <v>2.925923064453125</v>
       </c>
       <c r="F45">
-        <v>0.670893562174479</v>
+        <v>0.7314807661132812</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>2883473.609375</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>2.883473609375</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>2.746057751302083</v>
+        <v>2.976534640625</v>
       </c>
       <c r="E46">
-        <v>2.814765680338541</v>
+        <v>1.4882673203125</v>
       </c>
       <c r="F46">
-        <v>0.7036914200846354</v>
+        <v>0.372066830078125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>2986086.264322917</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2.986086264322917</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2.883473609375</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2.934779936848958</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.7336949842122394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3040622.3984375</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>3.0406223984375</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2.986086264322917</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>3.013354331380208</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.7533385828450521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1645,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>3.0406223984375</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1.52031119921875</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.3800777998046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">

--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-07-30 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-07-30 23:45:00+00:00</t>
+    <t>2024-08-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1179,19 +1179,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1642.31844329834</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.0016423184432983</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.0008211592216491</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.0002052898054122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>12806.68037923177</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.0128066803792317</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0.0016423184432983</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.007224499411265</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.0018061248528162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>27043.73956298828</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.0270437395629882</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.0128066803792317</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.0199252099711099</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.0049813024927774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>54038.58296712239</v>
+        <v>1765.557335535685</v>
       </c>
       <c r="C29">
-        <v>0.0540385829671223</v>
+        <v>0.0017655573355356</v>
       </c>
       <c r="D29">
-        <v>0.0270437395629882</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.0405411612650552</v>
+        <v>0.0008827786677678</v>
       </c>
       <c r="F29">
-        <v>0.0101352903162637</v>
+        <v>0.0002206946669419</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>88996.98274739584</v>
+        <v>28658.85710652669</v>
       </c>
       <c r="C30">
-        <v>0.0889969827473958</v>
+        <v>0.0286588571065266</v>
       </c>
       <c r="D30">
-        <v>0.0540385829671223</v>
+        <v>0.0017655573355356</v>
       </c>
       <c r="E30">
-        <v>0.0715177828572591</v>
+        <v>0.0152122072210311</v>
       </c>
       <c r="F30">
-        <v>0.0178794457143147</v>
+        <v>0.0038030518052577</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>147492.6302083333</v>
+        <v>56037.27966308594</v>
       </c>
       <c r="C31">
-        <v>0.1474926302083333</v>
+        <v>0.0560372796630859</v>
       </c>
       <c r="D31">
-        <v>0.0889969827473958</v>
+        <v>0.0286588571065266</v>
       </c>
       <c r="E31">
-        <v>0.1182448064778645</v>
+        <v>0.0423480683848063</v>
       </c>
       <c r="F31">
-        <v>0.0295612016194661</v>
+        <v>0.0105870170962015</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>271976.7798665364</v>
+        <v>48097.56840006511</v>
       </c>
       <c r="C32">
-        <v>0.2719767798665364</v>
+        <v>0.0480975684000651</v>
       </c>
       <c r="D32">
-        <v>0.1474926302083333</v>
+        <v>0.0560372796630859</v>
       </c>
       <c r="E32">
-        <v>0.2097347050374348</v>
+        <v>0.0520674240315754</v>
       </c>
       <c r="F32">
-        <v>0.0524336762593586</v>
+        <v>0.0130168560078938</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>429977.9078776041</v>
+        <v>83071.54130045572</v>
       </c>
       <c r="C33">
-        <v>0.4299779078776041</v>
+        <v>0.0830715413004556</v>
       </c>
       <c r="D33">
-        <v>0.2719767798665364</v>
+        <v>0.0480975684000651</v>
       </c>
       <c r="E33">
-        <v>0.3509773438720702</v>
+        <v>0.0655845548502603</v>
       </c>
       <c r="F33">
-        <v>0.08774433596801751</v>
+        <v>0.016396138712565</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>633277.2262369791</v>
+        <v>119456.5695800781</v>
       </c>
       <c r="C34">
-        <v>0.6332772262369791</v>
+        <v>0.1194565695800781</v>
       </c>
       <c r="D34">
-        <v>0.4299779078776041</v>
+        <v>0.0830715413004556</v>
       </c>
       <c r="E34">
-        <v>0.5316275670572916</v>
+        <v>0.1012640554402668</v>
       </c>
       <c r="F34">
-        <v>0.1329068917643228</v>
+        <v>0.0253160138600666</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>863057.2936197917</v>
+        <v>194109.4351399739</v>
       </c>
       <c r="C35">
-        <v>0.8630572936197917</v>
+        <v>0.1941094351399739</v>
       </c>
       <c r="D35">
-        <v>0.6332772262369791</v>
+        <v>0.1194565695800781</v>
       </c>
       <c r="E35">
-        <v>0.7481672599283853</v>
+        <v>0.1567830023600259</v>
       </c>
       <c r="F35">
-        <v>0.1870418149820962</v>
+        <v>0.0391957505900064</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1109280.420572917</v>
+        <v>603478.037923177</v>
       </c>
       <c r="C36">
-        <v>1.109280420572917</v>
+        <v>0.6034780379231771</v>
       </c>
       <c r="D36">
-        <v>0.8630572936197917</v>
+        <v>0.1941094351399739</v>
       </c>
       <c r="E36">
-        <v>0.9861688570963542</v>
+        <v>0.3987937365315755</v>
       </c>
       <c r="F36">
-        <v>0.2465422142740885</v>
+        <v>0.09969843413289381</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1343670.201171875</v>
+        <v>406300.1061197916</v>
       </c>
       <c r="C37">
-        <v>1.343670201171875</v>
+        <v>0.4063001061197916</v>
       </c>
       <c r="D37">
-        <v>1.109280420572917</v>
+        <v>0.6034780379231771</v>
       </c>
       <c r="E37">
-        <v>1.226475310872396</v>
+        <v>0.5048890720214844</v>
       </c>
       <c r="F37">
-        <v>0.3066188277180988</v>
+        <v>0.126222268005371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1593599.343098958</v>
+        <v>486426.8177083333</v>
       </c>
       <c r="C38">
-        <v>1.593599343098958</v>
+        <v>0.4864268177083333</v>
       </c>
       <c r="D38">
-        <v>1.343670201171875</v>
+        <v>0.4063001061197916</v>
       </c>
       <c r="E38">
-        <v>1.468634772135417</v>
+        <v>0.4463634619140624</v>
       </c>
       <c r="F38">
-        <v>0.3671586930338541</v>
+        <v>0.1115908654785156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1845423.793619792</v>
+        <v>588672.568359375</v>
       </c>
       <c r="C39">
-        <v>1.845423793619792</v>
+        <v>0.588672568359375</v>
       </c>
       <c r="D39">
-        <v>1.593599343098958</v>
+        <v>0.4864268177083333</v>
       </c>
       <c r="E39">
-        <v>1.719511568359375</v>
+        <v>0.5375496930338541</v>
       </c>
       <c r="F39">
-        <v>0.4298778920898437</v>
+        <v>0.1343874232584635</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>2070057.217447917</v>
+        <v>658117.0885416666</v>
       </c>
       <c r="C40">
-        <v>2.070057217447917</v>
+        <v>0.6581170885416666</v>
       </c>
       <c r="D40">
-        <v>1.845423793619792</v>
+        <v>0.588672568359375</v>
       </c>
       <c r="E40">
-        <v>1.957740505533854</v>
+        <v>0.6233948284505209</v>
       </c>
       <c r="F40">
-        <v>0.4894351263834635</v>
+        <v>0.1558487071126302</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>2285382.825520833</v>
+        <v>657008.0100911459</v>
       </c>
       <c r="C41">
-        <v>2.285382825520833</v>
+        <v>0.6570080100911458</v>
       </c>
       <c r="D41">
-        <v>2.070057217447917</v>
+        <v>0.6581170885416666</v>
       </c>
       <c r="E41">
-        <v>2.177720021484375</v>
+        <v>0.6575625493164062</v>
       </c>
       <c r="F41">
-        <v>0.5444300053710937</v>
+        <v>0.1643906373291015</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2497296.0078125</v>
+        <v>532883.3001302084</v>
       </c>
       <c r="C42">
-        <v>2.4972960078125</v>
+        <v>0.5328833001302083</v>
       </c>
       <c r="D42">
-        <v>2.285382825520833</v>
+        <v>0.6570080100911458</v>
       </c>
       <c r="E42">
-        <v>2.391339416666667</v>
+        <v>0.5949456551106771</v>
       </c>
       <c r="F42">
-        <v>0.5978348541666667</v>
+        <v>0.1487364137776692</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2689228.684895833</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>2.689228684895833</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2.4972960078125</v>
+        <v>0.5328833001302083</v>
       </c>
       <c r="E43">
-        <v>2.593262346354167</v>
+        <v>0.2664416500651042</v>
       </c>
       <c r="F43">
-        <v>0.6483155865885417</v>
+        <v>0.066610412516276</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>2875311.48828125</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2.87531148828125</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.689228684895833</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2.782270086588541</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.6955675216471353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2976534.640625</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2.976534640625</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>2.87531148828125</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2.925923064453125</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.7314807661132812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2.976534640625</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1.4882673203125</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.372066830078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">

--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-08-29 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-08-29 23:45:00+00:00</t>
+    <t>2024-09-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-09-24 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1765.557335535685</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.0017655573355356</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.0008827786677678</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.0002206946669419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>28658.85710652669</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.0286588571065266</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.0017655573355356</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.0152122072210311</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.0038030518052577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>56037.27966308594</v>
+        <v>3255.24415588379</v>
       </c>
       <c r="C31">
-        <v>0.0560372796630859</v>
+        <v>0.0032552441558837</v>
       </c>
       <c r="D31">
-        <v>0.0286588571065266</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.0423480683848063</v>
+        <v>0.0016276220779418</v>
       </c>
       <c r="F31">
-        <v>0.0105870170962015</v>
+        <v>0.0004069055194854</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>48097.56840006511</v>
+        <v>29269.15754191081</v>
       </c>
       <c r="C32">
-        <v>0.0480975684000651</v>
+        <v>0.0292691575419107</v>
       </c>
       <c r="D32">
-        <v>0.0560372796630859</v>
+        <v>0.0032552441558837</v>
       </c>
       <c r="E32">
-        <v>0.0520674240315754</v>
+        <v>0.0162622008488971</v>
       </c>
       <c r="F32">
-        <v>0.0130168560078938</v>
+        <v>0.0040655502122242</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>83071.54130045572</v>
+        <v>130964.7746988932</v>
       </c>
       <c r="C33">
-        <v>0.0830715413004556</v>
+        <v>0.1309647746988932</v>
       </c>
       <c r="D33">
-        <v>0.0480975684000651</v>
+        <v>0.0292691575419107</v>
       </c>
       <c r="E33">
-        <v>0.0655845548502603</v>
+        <v>0.08011696612040189</v>
       </c>
       <c r="F33">
-        <v>0.016396138712565</v>
+        <v>0.0200292415301004</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>119456.5695800781</v>
+        <v>305373.0834147135</v>
       </c>
       <c r="C34">
-        <v>0.1194565695800781</v>
+        <v>0.3053730834147134</v>
       </c>
       <c r="D34">
-        <v>0.0830715413004556</v>
+        <v>0.1309647746988932</v>
       </c>
       <c r="E34">
-        <v>0.1012640554402668</v>
+        <v>0.2181689290568032</v>
       </c>
       <c r="F34">
-        <v>0.0253160138600666</v>
+        <v>0.0545422322642007</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>194109.4351399739</v>
+        <v>592367.5735677083</v>
       </c>
       <c r="C35">
-        <v>0.1941094351399739</v>
+        <v>0.5923675735677083</v>
       </c>
       <c r="D35">
-        <v>0.1194565695800781</v>
+        <v>0.3053730834147134</v>
       </c>
       <c r="E35">
-        <v>0.1567830023600259</v>
+        <v>0.4488703284912108</v>
       </c>
       <c r="F35">
-        <v>0.0391957505900064</v>
+        <v>0.1122175821228026</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>603478.037923177</v>
+        <v>871247.2115885416</v>
       </c>
       <c r="C36">
-        <v>0.6034780379231771</v>
+        <v>0.8712472115885417</v>
       </c>
       <c r="D36">
-        <v>0.1941094351399739</v>
+        <v>0.5923675735677083</v>
       </c>
       <c r="E36">
-        <v>0.3987937365315755</v>
+        <v>0.731807392578125</v>
       </c>
       <c r="F36">
-        <v>0.09969843413289381</v>
+        <v>0.1829518481445312</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>406300.1061197916</v>
+        <v>1143692.049804688</v>
       </c>
       <c r="C37">
-        <v>0.4063001061197916</v>
+        <v>1.143692049804688</v>
       </c>
       <c r="D37">
-        <v>0.6034780379231771</v>
+        <v>0.8712472115885417</v>
       </c>
       <c r="E37">
-        <v>0.5048890720214844</v>
+        <v>1.007469630696614</v>
       </c>
       <c r="F37">
-        <v>0.126222268005371</v>
+        <v>0.2518674076741536</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>486426.8177083333</v>
+        <v>1390311.949544271</v>
       </c>
       <c r="C38">
-        <v>0.4864268177083333</v>
+        <v>1.390311949544271</v>
       </c>
       <c r="D38">
-        <v>0.4063001061197916</v>
+        <v>1.143692049804688</v>
       </c>
       <c r="E38">
-        <v>0.4463634619140624</v>
+        <v>1.267001999674479</v>
       </c>
       <c r="F38">
-        <v>0.1115908654785156</v>
+        <v>0.3167504999186197</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>588672.568359375</v>
+        <v>1650165.860677083</v>
       </c>
       <c r="C39">
-        <v>0.588672568359375</v>
+        <v>1.650165860677083</v>
       </c>
       <c r="D39">
-        <v>0.4864268177083333</v>
+        <v>1.390311949544271</v>
       </c>
       <c r="E39">
-        <v>0.5375496930338541</v>
+        <v>1.520238905110677</v>
       </c>
       <c r="F39">
-        <v>0.1343874232584635</v>
+        <v>0.3800597262776693</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>658117.0885416666</v>
+        <v>1930147.520833333</v>
       </c>
       <c r="C40">
-        <v>0.6581170885416666</v>
+        <v>1.930147520833334</v>
       </c>
       <c r="D40">
-        <v>0.588672568359375</v>
+        <v>1.650165860677083</v>
       </c>
       <c r="E40">
-        <v>0.6233948284505209</v>
+        <v>1.790156690755208</v>
       </c>
       <c r="F40">
-        <v>0.1558487071126302</v>
+        <v>0.4475391726888019</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>657008.0100911459</v>
+        <v>2173008.897135417</v>
       </c>
       <c r="C41">
-        <v>0.6570080100911458</v>
+        <v>2.173008897135417</v>
       </c>
       <c r="D41">
-        <v>0.6581170885416666</v>
+        <v>1.930147520833334</v>
       </c>
       <c r="E41">
-        <v>0.6575625493164062</v>
+        <v>2.051578208984375</v>
       </c>
       <c r="F41">
-        <v>0.1643906373291015</v>
+        <v>0.5128945522460937</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>532883.3001302084</v>
+        <v>2382480.729166667</v>
       </c>
       <c r="C42">
-        <v>0.5328833001302083</v>
+        <v>2.382480729166666</v>
       </c>
       <c r="D42">
-        <v>0.6570080100911458</v>
+        <v>2.173008897135417</v>
       </c>
       <c r="E42">
-        <v>0.5949456551106771</v>
+        <v>2.277744813151042</v>
       </c>
       <c r="F42">
-        <v>0.1487364137776692</v>
+        <v>0.5694362032877602</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2575254.546223958</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2.575254546223958</v>
       </c>
       <c r="D43">
-        <v>0.5328833001302083</v>
+        <v>2.382480729166666</v>
       </c>
       <c r="E43">
-        <v>0.2664416500651042</v>
+        <v>2.478867637695313</v>
       </c>
       <c r="F43">
-        <v>0.066610412516276</v>
+        <v>0.619716909423828</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2753371.261067708</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2.753371261067708</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2.575254546223958</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2.664312903645833</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.6660782259114582</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2905623.309895833</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2.905623309895833</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2.753371261067708</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2.829497285481771</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.7073743213704426</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3013935.970052083</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3.013935970052083</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2.905623309895833</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2.959779639973958</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.7399449099934894</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3155303.184895834</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3.155303184895834</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3.013935970052083</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.084619577473958</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.7711548943684896</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3263945.100260416</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3.263945100260417</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3.155303184895834</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3.209624142578125</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.8024060356445313</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,19 +1639,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3391673.826822916</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3.391673826822916</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3.263945100260417</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3.327809463541666</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.8319523658854164</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>3472410.662760417</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3.472410662760416</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>3.391673826822916</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3.432042244791667</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.8580105611979166</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,19 +1679,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3457321.852864583</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3.457321852864583</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>3.472410662760416</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3.4648662578125</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.866216564453125</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,19 +1699,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3517494.397135416</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3.517494397135416</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3.457321852864583</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>3.487408125</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.87185203125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>3581752.436197916</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>3.581752436197916</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3.517494397135416</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3.549623416666666</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.8874058541666666</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3582533.778645833</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3.582533778645833</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3.581752436197916</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3.582143107421875</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.8955357768554686</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3570155.350260416</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3.570155350260416</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>3.582533778645833</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3.576344564453125</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.8940861411132812</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3528979.671875</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3.528979671875</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>3.570155350260416</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3.549567511067708</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.887391877766927</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,19 +1799,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>996627.2265625</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.9966272265625</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3.528979671875</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2.26280344921875</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.5657008623046873</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.9966272265625</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.49831361328125</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.1245784033203125</v>
       </c>
     </row>
     <row r="59" spans="1:6">

--- a/Imperial/Real-Time_forecast_dataset.xlsx
+++ b/Imperial/Real-Time_forecast_dataset.xlsx
@@ -34,292 +34,292 @@
     <t>Energy_MWh</t>
   </si>
   <si>
-    <t>2024-09-24 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 00:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 00:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 00:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 01:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 01:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 01:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 02:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 02:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 02:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 03:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 03:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 03:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 04:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 04:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 04:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 05:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 05:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 05:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 06:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 06:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 06:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 07:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 07:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 07:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 08:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 08:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 08:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 09:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 09:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 09:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 10:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 10:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 10:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 11:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 11:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 11:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 12:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 12:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 12:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 13:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 13:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 13:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 14:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 14:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 14:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 15:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 15:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 15:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 16:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 16:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 16:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 17:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 17:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 17:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 18:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 18:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 18:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 20:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 20:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 20:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 21:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 21:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 21:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 22:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 22:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 22:45:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 23:15:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 23:30:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-09-24 23:45:00+00:00</t>
+    <t>2024-08-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 02:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 03:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 04:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 05:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 06:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 07:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 08:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 09:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 10:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 11:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 13:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 17:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 18:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 19:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 20:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 21:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 22:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:30:00+00:00</t>
+  </si>
+  <si>
+    <t>2024-08-29 23:45:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1239,19 +1239,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1765.557335535685</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.0017655573355356</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.0008827786677678</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.0002206946669419</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,19 +1259,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>28658.85710652669</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.0286588571065266</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.0017655573355356</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.0152122072210311</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.0038030518052577</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,19 +1279,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>3255.24415588379</v>
+        <v>56037.27966308594</v>
       </c>
       <c r="C31">
-        <v>0.0032552441558837</v>
+        <v>0.0560372796630859</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.0286588571065266</v>
       </c>
       <c r="E31">
-        <v>0.0016276220779418</v>
+        <v>0.0423480683848063</v>
       </c>
       <c r="F31">
-        <v>0.0004069055194854</v>
+        <v>0.0105870170962015</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,19 +1299,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>29269.15754191081</v>
+        <v>48097.56840006511</v>
       </c>
       <c r="C32">
-        <v>0.0292691575419107</v>
+        <v>0.0480975684000651</v>
       </c>
       <c r="D32">
-        <v>0.0032552441558837</v>
+        <v>0.0560372796630859</v>
       </c>
       <c r="E32">
-        <v>0.0162622008488971</v>
+        <v>0.0520674240315754</v>
       </c>
       <c r="F32">
-        <v>0.0040655502122242</v>
+        <v>0.0130168560078938</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,19 +1319,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>130964.7746988932</v>
+        <v>83071.54130045572</v>
       </c>
       <c r="C33">
-        <v>0.1309647746988932</v>
+        <v>0.0830715413004556</v>
       </c>
       <c r="D33">
-        <v>0.0292691575419107</v>
+        <v>0.0480975684000651</v>
       </c>
       <c r="E33">
-        <v>0.08011696612040189</v>
+        <v>0.0655845548502603</v>
       </c>
       <c r="F33">
-        <v>0.0200292415301004</v>
+        <v>0.016396138712565</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>305373.0834147135</v>
+        <v>119456.5695800781</v>
       </c>
       <c r="C34">
-        <v>0.3053730834147134</v>
+        <v>0.1194565695800781</v>
       </c>
       <c r="D34">
-        <v>0.1309647746988932</v>
+        <v>0.0830715413004556</v>
       </c>
       <c r="E34">
-        <v>0.2181689290568032</v>
+        <v>0.1012640554402668</v>
       </c>
       <c r="F34">
-        <v>0.0545422322642007</v>
+        <v>0.0253160138600666</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>592367.5735677083</v>
+        <v>194109.4351399739</v>
       </c>
       <c r="C35">
-        <v>0.5923675735677083</v>
+        <v>0.1941094351399739</v>
       </c>
       <c r="D35">
-        <v>0.3053730834147134</v>
+        <v>0.1194565695800781</v>
       </c>
       <c r="E35">
-        <v>0.4488703284912108</v>
+        <v>0.1567830023600259</v>
       </c>
       <c r="F35">
-        <v>0.1122175821228026</v>
+        <v>0.0391957505900064</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>871247.2115885416</v>
+        <v>603478.037923177</v>
       </c>
       <c r="C36">
-        <v>0.8712472115885417</v>
+        <v>0.6034780379231771</v>
       </c>
       <c r="D36">
-        <v>0.5923675735677083</v>
+        <v>0.1941094351399739</v>
       </c>
       <c r="E36">
-        <v>0.731807392578125</v>
+        <v>0.3987937365315755</v>
       </c>
       <c r="F36">
-        <v>0.1829518481445312</v>
+        <v>0.09969843413289381</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1143692.049804688</v>
+        <v>406300.1061197916</v>
       </c>
       <c r="C37">
-        <v>1.143692049804688</v>
+        <v>0.4063001061197916</v>
       </c>
       <c r="D37">
-        <v>0.8712472115885417</v>
+        <v>0.6034780379231771</v>
       </c>
       <c r="E37">
-        <v>1.007469630696614</v>
+        <v>0.5048890720214844</v>
       </c>
       <c r="F37">
-        <v>0.2518674076741536</v>
+        <v>0.126222268005371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1390311.949544271</v>
+        <v>486426.8177083333</v>
       </c>
       <c r="C38">
-        <v>1.390311949544271</v>
+        <v>0.4864268177083333</v>
       </c>
       <c r="D38">
-        <v>1.143692049804688</v>
+        <v>0.4063001061197916</v>
       </c>
       <c r="E38">
-        <v>1.267001999674479</v>
+        <v>0.4463634619140624</v>
       </c>
       <c r="F38">
-        <v>0.3167504999186197</v>
+        <v>0.1115908654785156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1650165.860677083</v>
+        <v>588672.568359375</v>
       </c>
       <c r="C39">
-        <v>1.650165860677083</v>
+        <v>0.588672568359375</v>
       </c>
       <c r="D39">
-        <v>1.390311949544271</v>
+        <v>0.4864268177083333</v>
       </c>
       <c r="E39">
-        <v>1.520238905110677</v>
+        <v>0.5375496930338541</v>
       </c>
       <c r="F39">
-        <v>0.3800597262776693</v>
+        <v>0.1343874232584635</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1930147.520833333</v>
+        <v>658117.0885416666</v>
       </c>
       <c r="C40">
-        <v>1.930147520833334</v>
+        <v>0.6581170885416666</v>
       </c>
       <c r="D40">
-        <v>1.650165860677083</v>
+        <v>0.588672568359375</v>
       </c>
       <c r="E40">
-        <v>1.790156690755208</v>
+        <v>0.6233948284505209</v>
       </c>
       <c r="F40">
-        <v>0.4475391726888019</v>
+        <v>0.1558487071126302</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>2173008.897135417</v>
+        <v>657008.0100911459</v>
       </c>
       <c r="C41">
-        <v>2.173008897135417</v>
+        <v>0.6570080100911458</v>
       </c>
       <c r="D41">
-        <v>1.930147520833334</v>
+        <v>0.6581170885416666</v>
       </c>
       <c r="E41">
-        <v>2.051578208984375</v>
+        <v>0.6575625493164062</v>
       </c>
       <c r="F41">
-        <v>0.5128945522460937</v>
+        <v>0.1643906373291015</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,19 +1499,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2382480.729166667</v>
+        <v>532883.3001302084</v>
       </c>
       <c r="C42">
-        <v>2.382480729166666</v>
+        <v>0.5328833001302083</v>
       </c>
       <c r="D42">
-        <v>2.173008897135417</v>
+        <v>0.6570080100911458</v>
       </c>
       <c r="E42">
-        <v>2.277744813151042</v>
+        <v>0.5949456551106771</v>
       </c>
       <c r="F42">
-        <v>0.5694362032877602</v>
+        <v>0.1487364137776692</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2575254.546223958</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>2.575254546223958</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2.382480729166666</v>
+        <v>0.5328833001302083</v>
       </c>
       <c r="E43">
-        <v>2.478867637695313</v>
+        <v>0.2664416500651042</v>
       </c>
       <c r="F43">
-        <v>0.619716909423828</v>
+        <v>0.066610412516276</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>2753371.261067708</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2.753371261067708</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.575254546223958</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2.664312903645833</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.6660782259114582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2905623.309895833</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2.905623309895833</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>2.753371261067708</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2.829497285481771</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.7073743213704426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>3013935.970052083</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>3.013935970052083</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>2.905623309895833</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>2.959779639973958</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.7399449099934894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>3155303.184895834</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>3.155303184895834</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>3.013935970052083</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>3.084619577473958</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.7711548943684896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3263945.100260416</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>3.263945100260417</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3.155303184895834</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>3.209624142578125</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.8024060356445313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,19 +1639,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>3391673.826822916</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>3.391673826822916</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>3.263945100260417</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3.327809463541666</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.8319523658854164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>3472410.662760417</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>3.472410662760416</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>3.391673826822916</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>3.432042244791667</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.8580105611979166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,19 +1679,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>3457321.852864583</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>3.457321852864583</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>3.472410662760416</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>3.4648662578125</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.866216564453125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,19 +1699,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>3517494.397135416</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>3.517494397135416</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>3.457321852864583</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3.487408125</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.87185203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3581752.436197916</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>3.581752436197916</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>3.517494397135416</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3.549623416666666</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.8874058541666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>3582533.778645833</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3.582533778645833</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3.581752436197916</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>3.582143107421875</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.8955357768554686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>3570155.350260416</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>3.570155350260416</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>3.582533778645833</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3.576344564453125</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.8940861411132812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>3528979.671875</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>3.528979671875</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3.570155350260416</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3.549567511067708</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.887391877766927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,19 +1799,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>996627.2265625</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.9966272265625</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>3.528979671875</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2.26280344921875</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.5657008623046873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.9966272265625</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.49831361328125</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.1245784033203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
